--- a/01_kidsweb/home/kids2/report_tmp/納品書temple_B社_連絡書付.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/納品書temple_B社_連絡書付.xlsx
@@ -7,16 +7,56 @@
     <workbookView xWindow="390" yWindow="30" windowWidth="18210" windowHeight="8550" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="B社専用" sheetId="1" r:id="rId1"/>
+    <sheet name="納品書" sheetId="1" r:id="rId1"/>
     <sheet name="納品連絡書" sheetId="2" r:id="rId2"/>
     <sheet name="データ設定用" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">B社専用!$C$2:$N$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">納品書!$C$2:$N$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">納品連絡書!$A$1:$J$23</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>solcom-ad</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>この行にマスタデータをセット</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>この行から明細データをセット</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1036,7 +1076,7 @@
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1101,6 +1141,14 @@
       <sz val="14"/>
       <name val="ＭＳ Ｐ明朝"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1373,6 +1421,96 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1382,100 +1520,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -1824,10 +1872,10 @@
   <dimension ref="C1:N23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:F22"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="1.25" customWidth="1"/>
     <col min="2" max="2" width="1" customWidth="1"/>
@@ -1845,9 +1893,9 @@
     <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="3:14" ht="34.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="3:14" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:14" ht="13.9" customHeight="1"/>
+    <row r="2" spans="3:14" ht="34.15" customHeight="1"/>
+    <row r="3" spans="3:14" ht="17.25">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1859,46 +1907,46 @@
       <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="66">
         <f>データ設定用!AF3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="67"/>
       <c r="N3" s="11"/>
     </row>
-    <row r="4" spans="3:14" ht="12.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="42"/>
+    <row r="4" spans="3:14" ht="12.4" customHeight="1">
+      <c r="C4" s="72"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="73" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="44">
+      <c r="H4" s="74">
         <f>データ設定用!H3</f>
         <v>0</v>
       </c>
-      <c r="I4" s="44"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="3"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="3:14" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="42"/>
+    <row r="5" spans="3:14" ht="14.65" customHeight="1">
+      <c r="C5" s="72"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="43"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="3:14" ht="35.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:14" ht="35.65" customHeight="1">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1906,20 +1954,20 @@
         <v>15</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="47">
+      <c r="H6" s="76">
         <f>データ設定用!P3</f>
         <v>0</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="54" t="s">
+      <c r="I6" s="74"/>
+      <c r="J6" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-    </row>
-    <row r="7" spans="3:14" ht="33.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+    </row>
+    <row r="7" spans="3:14" ht="33.4" customHeight="1">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1927,18 +1975,18 @@
         <v>10</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="44">
+      <c r="H7" s="74">
         <f>データ設定用!R3</f>
         <v>0</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-    </row>
-    <row r="8" spans="3:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I7" s="74"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+    </row>
+    <row r="8" spans="3:14" ht="21" customHeight="1">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1952,19 +2000,19 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="3:14" ht="24.4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:14" ht="24.4" customHeight="1">
       <c r="C9" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
       <c r="I9" s="6" t="s">
         <v>1</v>
       </c>
@@ -1977,12 +2025,12 @@
       <c r="L9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="50" t="s">
+      <c r="M9" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="51"/>
-    </row>
-    <row r="10" spans="3:14" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N9" s="69"/>
+    </row>
+    <row r="10" spans="3:14" ht="34.9" customHeight="1">
       <c r="C10" s="10">
         <f>データ設定用!E6</f>
         <v>0</v>
@@ -1991,14 +2039,14 @@
         <f>データ設定用!H6</f>
         <v>0</v>
       </c>
-      <c r="E10" s="45" t="str">
+      <c r="E10" s="65" t="str">
         <f>CONCATENATE(データ設定用!K6,CHAR(10),データ設定用!G6,"　",データ設定用!S6)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
       <c r="I10" s="10">
         <f>データ設定用!M6</f>
         <v>0</v>
@@ -2015,13 +2063,13 @@
         <f t="shared" ref="L10:L15" si="0">I10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="52">
+      <c r="M10" s="59">
         <f>データ設定用!R6</f>
         <v>0</v>
       </c>
-      <c r="N10" s="53"/>
-    </row>
-    <row r="11" spans="3:14" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N10" s="60"/>
+    </row>
+    <row r="11" spans="3:14" ht="34.9" customHeight="1">
       <c r="C11" s="12">
         <f>データ設定用!E7</f>
         <v>0</v>
@@ -2030,14 +2078,14 @@
         <f>データ設定用!H7</f>
         <v>0</v>
       </c>
-      <c r="E11" s="45" t="str">
+      <c r="E11" s="65" t="str">
         <f>CONCATENATE(データ設定用!K7,CHAR(10),データ設定用!G7,"　",データ設定用!S7)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
       <c r="I11" s="12">
         <f>データ設定用!M7</f>
         <v>0</v>
@@ -2054,13 +2102,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="52">
+      <c r="M11" s="59">
         <f>データ設定用!R7</f>
         <v>0</v>
       </c>
-      <c r="N11" s="53"/>
-    </row>
-    <row r="12" spans="3:14" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N11" s="60"/>
+    </row>
+    <row r="12" spans="3:14" ht="34.9" customHeight="1">
       <c r="C12" s="12">
         <f>データ設定用!E8</f>
         <v>0</v>
@@ -2069,14 +2117,14 @@
         <f>データ設定用!H8</f>
         <v>0</v>
       </c>
-      <c r="E12" s="45" t="str">
+      <c r="E12" s="65" t="str">
         <f>CONCATENATE(データ設定用!K8,CHAR(10),データ設定用!G8,"　",データ設定用!S8)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
       <c r="I12" s="12">
         <f>データ設定用!M8</f>
         <v>0</v>
@@ -2093,13 +2141,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="52">
+      <c r="M12" s="59">
         <f>データ設定用!R8</f>
         <v>0</v>
       </c>
-      <c r="N12" s="53"/>
-    </row>
-    <row r="13" spans="3:14" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N12" s="60"/>
+    </row>
+    <row r="13" spans="3:14" ht="34.9" customHeight="1">
       <c r="C13" s="12">
         <f>データ設定用!E9</f>
         <v>0</v>
@@ -2108,14 +2156,14 @@
         <f>データ設定用!H9</f>
         <v>0</v>
       </c>
-      <c r="E13" s="45" t="str">
+      <c r="E13" s="65" t="str">
         <f>CONCATENATE(データ設定用!K9,CHAR(10),データ設定用!G9,"　",データ設定用!S9)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
       <c r="I13" s="12">
         <f>データ設定用!M9</f>
         <v>0</v>
@@ -2132,13 +2180,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="52">
+      <c r="M13" s="59">
         <f>データ設定用!R9</f>
         <v>0</v>
       </c>
-      <c r="N13" s="53"/>
-    </row>
-    <row r="14" spans="3:14" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N13" s="60"/>
+    </row>
+    <row r="14" spans="3:14" ht="34.9" customHeight="1">
       <c r="C14" s="12">
         <f>データ設定用!E10</f>
         <v>0</v>
@@ -2147,14 +2195,14 @@
         <f>データ設定用!H10</f>
         <v>0</v>
       </c>
-      <c r="E14" s="45" t="str">
+      <c r="E14" s="65" t="str">
         <f>CONCATENATE(データ設定用!K10,CHAR(10),データ設定用!G10,"　",データ設定用!S10)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
       <c r="I14" s="12">
         <f>データ設定用!M10</f>
         <v>0</v>
@@ -2171,13 +2219,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="52">
+      <c r="M14" s="59">
         <f>データ設定用!R10</f>
         <v>0</v>
       </c>
-      <c r="N14" s="53"/>
-    </row>
-    <row r="15" spans="3:14" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N14" s="60"/>
+    </row>
+    <row r="15" spans="3:14" ht="34.9" customHeight="1">
       <c r="C15" s="12">
         <f>データ設定用!E11</f>
         <v>0</v>
@@ -2186,14 +2234,14 @@
         <f>データ設定用!H11</f>
         <v>0</v>
       </c>
-      <c r="E15" s="45" t="str">
+      <c r="E15" s="65" t="str">
         <f>CONCATENATE(データ設定用!K11,CHAR(10),データ設定用!G11,"　",データ設定用!S11)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
       <c r="I15" s="12">
         <f>データ設定用!M11</f>
         <v>0</v>
@@ -2210,13 +2258,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="52">
+      <c r="M15" s="59">
         <f>データ設定用!R11</f>
         <v>0</v>
       </c>
-      <c r="N15" s="53"/>
-    </row>
-    <row r="16" spans="3:14" ht="9.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N15" s="60"/>
+    </row>
+    <row r="16" spans="3:14" ht="9.4" customHeight="1">
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -2227,18 +2275,18 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="53"/>
-    </row>
-    <row r="17" spans="3:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="58" t="str">
+      <c r="M16" s="59"/>
+      <c r="N16" s="60"/>
+    </row>
+    <row r="17" spans="3:14" ht="13.15" customHeight="1">
+      <c r="C17" s="44" t="str">
         <f>CONCATENATE(IF(LEN(データ設定用!G6)&gt;0,CONCATENATE(データ設定用!G6,"分　"),""),データ設定用!Z3,IF(データ設定用!Z3&lt;&gt;"非課税",CONCATENATE("(",データ設定用!AA3*100,"%)"),""),CHAR(10),データ設定用!AE3)</f>
         <v xml:space="preserve">(0%)
 </v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
       <c r="G17" s="6" t="s">
         <v>8</v>
       </c>
@@ -2246,107 +2294,107 @@
         <f>データ設定用!I6</f>
         <v>0</v>
       </c>
-      <c r="I17" s="67">
+      <c r="I17" s="53">
         <f>データ設定用!U3</f>
         <v>0</v>
       </c>
-      <c r="J17" s="68"/>
+      <c r="J17" s="54"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="56" t="s">
+      <c r="L17" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="73">
+      <c r="M17" s="61">
         <f>データ設定用!V3</f>
         <v>0</v>
       </c>
-      <c r="N17" s="74"/>
-    </row>
-    <row r="18" spans="3:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="63"/>
+      <c r="N17" s="62"/>
+    </row>
+    <row r="18" spans="3:14" ht="13.15" customHeight="1">
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="2"/>
       <c r="H18" s="39">
         <f>データ設定用!I7</f>
         <v>0</v>
       </c>
-      <c r="I18" s="69"/>
-      <c r="J18" s="70"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="56"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="76"/>
-    </row>
-    <row r="19" spans="3:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="63"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="64"/>
+    </row>
+    <row r="19" spans="3:14" ht="13.15" customHeight="1">
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
       <c r="G19" s="2"/>
       <c r="H19" s="39">
         <f>データ設定用!I8</f>
         <v>0</v>
       </c>
-      <c r="I19" s="69"/>
-      <c r="J19" s="70"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="3:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="63"/>
+    <row r="20" spans="3:14" ht="13.15" customHeight="1">
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
       <c r="G20" s="2"/>
       <c r="H20" s="39">
         <f>データ設定用!I9</f>
         <v>0</v>
       </c>
-      <c r="I20" s="69"/>
-      <c r="J20" s="70"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="56"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="3:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="63"/>
+    <row r="21" spans="3:14" ht="13.15" customHeight="1">
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
       <c r="G21" s="2"/>
       <c r="H21" s="39">
         <f>データ設定用!I10</f>
         <v>0</v>
       </c>
-      <c r="I21" s="69"/>
-      <c r="J21" s="70"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="3:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66"/>
+    <row r="22" spans="3:14" ht="13.15" customHeight="1">
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="1"/>
       <c r="H22" s="39">
         <f>データ設定用!I11</f>
         <v>0</v>
       </c>
-      <c r="I22" s="71"/>
-      <c r="J22" s="72"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="3:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:14" ht="12" customHeight="1">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2367,14 +2415,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="C17:F22"/>
-    <mergeCell ref="I17:J22"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="M10:N10"/>
@@ -2385,14 +2433,14 @@
     <mergeCell ref="J6:N7"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="C17:F22"/>
+    <mergeCell ref="I17:J22"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="E15:H15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.51181102362204722" bottom="0" header="0" footer="0"/>
@@ -2409,7 +2457,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3" style="13" customWidth="1"/>
     <col min="2" max="2" width="16" style="13" customWidth="1"/>
@@ -2424,7 +2472,7 @@
     <col min="11" max="16384" width="8.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.4" customHeight="1">
       <c r="B2" s="77" t="str">
         <f>CONCATENATE(データ設定用!G3,"　",データ設定用!H3,"　",データ設定用!O3,"様")</f>
         <v>　　様</v>
@@ -2432,7 +2480,7 @@
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
     </row>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="21">
       <c r="B3" s="77" t="str">
         <f>CONCATENATE(データ設定用!R3,"　",データ設定用!S3,"様")</f>
         <v>　様</v>
@@ -2443,7 +2491,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="9" customHeight="1">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -2451,7 +2499,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:11" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="30.4" customHeight="1" thickBot="1">
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="78" t="s">
@@ -2461,17 +2509,17 @@
       <c r="F5" s="78"/>
       <c r="G5" s="78"/>
     </row>
-    <row r="7" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="20.65" customHeight="1">
       <c r="D7" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="7.5" customHeight="1">
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:11" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="25.9" customHeight="1" thickBot="1">
       <c r="D9" s="18" t="s">
         <v>18</v>
       </c>
@@ -2482,7 +2530,7 @@
       <c r="F9" s="79"/>
       <c r="G9" s="79"/>
     </row>
-    <row r="10" spans="1:11" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="10.9" customHeight="1">
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -2490,7 +2538,7 @@
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="25.5" customHeight="1">
       <c r="A11" s="22"/>
       <c r="B11" s="23" t="s">
         <v>19</v>
@@ -2519,16 +2567,16 @@
       <c r="J11" s="26"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" ht="33.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="33.4" customHeight="1">
       <c r="A12" s="22">
         <v>1</v>
       </c>
       <c r="B12" s="27">
-        <f>B社専用!C10</f>
+        <f>納品書!C10</f>
         <v>0</v>
       </c>
       <c r="C12" s="28">
-        <f>B社専用!D10</f>
+        <f>納品書!D10</f>
         <v>0</v>
       </c>
       <c r="D12" s="28">
@@ -2556,16 +2604,16 @@
       <c r="J12" s="26"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" ht="33.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="33.4" customHeight="1">
       <c r="A13" s="22">
         <v>2</v>
       </c>
       <c r="B13" s="27">
-        <f>B社専用!C11</f>
+        <f>納品書!C11</f>
         <v>0</v>
       </c>
       <c r="C13" s="28">
-        <f>B社専用!D11</f>
+        <f>納品書!D11</f>
         <v>0</v>
       </c>
       <c r="D13" s="28">
@@ -2593,16 +2641,16 @@
       <c r="J13" s="26"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" ht="33.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="33.4" customHeight="1">
       <c r="A14" s="22">
         <v>3</v>
       </c>
       <c r="B14" s="27">
-        <f>B社専用!C12</f>
+        <f>納品書!C12</f>
         <v>0</v>
       </c>
       <c r="C14" s="28">
-        <f>B社専用!D12</f>
+        <f>納品書!D12</f>
         <v>0</v>
       </c>
       <c r="D14" s="28">
@@ -2630,16 +2678,16 @@
       <c r="J14" s="26"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" ht="33.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="33.4" customHeight="1">
       <c r="A15" s="22">
         <v>4</v>
       </c>
       <c r="B15" s="27">
-        <f>B社専用!C13</f>
+        <f>納品書!C13</f>
         <v>0</v>
       </c>
       <c r="C15" s="28">
-        <f>B社専用!D13</f>
+        <f>納品書!D13</f>
         <v>0</v>
       </c>
       <c r="D15" s="28">
@@ -2667,16 +2715,16 @@
       <c r="J15" s="26"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" ht="33.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="33.4" customHeight="1">
       <c r="A16" s="22">
         <v>5</v>
       </c>
       <c r="B16" s="27">
-        <f>B社専用!C14</f>
+        <f>納品書!C14</f>
         <v>0</v>
       </c>
       <c r="C16" s="28">
-        <f>B社専用!D14</f>
+        <f>納品書!D14</f>
         <v>0</v>
       </c>
       <c r="D16" s="28">
@@ -2704,16 +2752,16 @@
       <c r="J16" s="26"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" ht="33.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="33.4" customHeight="1">
       <c r="A17" s="22">
         <v>6</v>
       </c>
       <c r="B17" s="27">
-        <f>B社専用!C15</f>
+        <f>納品書!C15</f>
         <v>0</v>
       </c>
       <c r="C17" s="28">
-        <f>B社専用!D15</f>
+        <f>納品書!D15</f>
         <v>0</v>
       </c>
       <c r="D17" s="28">
@@ -2741,7 +2789,7 @@
       <c r="J17" s="26"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="13.9" customHeight="1">
       <c r="A18" s="21"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -2754,7 +2802,7 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="27" customHeight="1">
       <c r="G19" s="80" t="s">
         <v>27</v>
       </c>
@@ -2765,27 +2813,27 @@
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" ht="15" customHeight="1">
       <c r="G20" s="32"/>
       <c r="H20" s="33"/>
       <c r="I20" s="31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" ht="15" customHeight="1">
       <c r="G21" s="32"/>
       <c r="H21" s="33"/>
       <c r="I21" s="31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" ht="15" customHeight="1">
       <c r="G22" s="32"/>
       <c r="H22" s="33" t="s">
         <v>31</v>
       </c>
       <c r="I22" s="31">
-        <f>B社専用!I17</f>
+        <f>納品書!I17</f>
         <v>0</v>
       </c>
     </row>
@@ -2804,14 +2852,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
@@ -2847,7 +2895,7 @@
     <col min="32" max="32" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36">
       <c r="B1" t="s">
         <v>75</v>
       </c>
@@ -2949,7 +2997,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:36">
       <c r="B2" t="s">
         <v>39</v>
       </c>
@@ -3044,7 +3092,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:36">
       <c r="A3" s="34" t="s">
         <v>32</v>
       </c>
@@ -3076,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:36">
       <c r="B4" t="s">
         <v>75</v>
       </c>
@@ -3132,7 +3180,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:36">
       <c r="B5" t="s">
         <v>39</v>
       </c>
@@ -3188,7 +3236,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:36">
       <c r="A6" s="34" t="s">
         <v>33</v>
       </c>
@@ -3201,7 +3249,7 @@
       <c r="Q6" s="34"/>
       <c r="S6" s="34"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:36">
       <c r="A7" s="34" t="s">
         <v>34</v>
       </c>
@@ -3214,7 +3262,7 @@
       <c r="Q7" s="34"/>
       <c r="S7" s="34"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:36">
       <c r="A8" s="34" t="s">
         <v>35</v>
       </c>
@@ -3227,7 +3275,7 @@
       <c r="Q8" s="34"/>
       <c r="S8" s="34"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:36">
       <c r="A9" s="34" t="s">
         <v>36</v>
       </c>
@@ -3241,7 +3289,7 @@
       <c r="S9" s="34"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:36">
       <c r="A10" s="34" t="s">
         <v>37</v>
       </c>
@@ -3254,7 +3302,7 @@
       <c r="Q10" s="34"/>
       <c r="S10" s="34"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:36">
       <c r="A11" s="34" t="s">
         <v>38</v>
       </c>
@@ -3271,5 +3319,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/01_kidsweb/home/kids2/report_tmp/納品書temple_B社_連絡書付.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/納品書temple_B社_連絡書付.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom-ad\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89C4840-1F0E-4F1E-AEA6-840CCE7A37B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="18210" windowHeight="8550" activeTab="2"/>
+    <workbookView xWindow="396" yWindow="36" windowWidth="18216" windowHeight="8556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="納品書" sheetId="1" r:id="rId1"/>
@@ -15,17 +21,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">納品書!$C$2:$N$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">納品連絡書!$A$1:$J$23</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>solcom-ad</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -40,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -139,13 +145,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>製品コード</t>
-    <rPh sb="0" eb="2">
-      <t>セイヒン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>KWGNo:</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1067,16 +1066,23 @@
   <si>
     <t>strshippercode</t>
   </si>
+  <si>
+    <t>製品CD</t>
+    <rPh sb="0" eb="2">
+      <t>セイヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1148,6 +1154,12 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1346,7 +1358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1421,6 +1433,51 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1472,12 +1529,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1488,42 +1539,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -1536,10 +1551,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1566,7 +1584,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1583,7 +1601,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1625,7 +1643,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1658,9 +1676,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1693,6 +1728,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1868,34 +1920,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:N23"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="1.25" customWidth="1"/>
+    <col min="1" max="1" width="1.21875" customWidth="1"/>
     <col min="2" max="2" width="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="4.875" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
-    <col min="10" max="10" width="7.25" customWidth="1"/>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="13.75" customWidth="1"/>
-    <col min="13" max="13" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1"/>
+    <col min="10" max="10" width="7.21875" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" ht="13.9" customHeight="1"/>
-    <row r="2" spans="3:14" ht="34.15" customHeight="1"/>
-    <row r="3" spans="3:14" ht="17.25">
+    <row r="1" spans="3:14" ht="13.95" customHeight="1"/>
+    <row r="2" spans="3:14" ht="34.200000000000003" customHeight="1"/>
+    <row r="3" spans="3:14" ht="16.2">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1905,86 +1957,86 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="66">
+        <v>10</v>
+      </c>
+      <c r="L3" s="49">
         <f>データ設定用!AF3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="67"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="11"/>
     </row>
-    <row r="4" spans="3:14" ht="12.4" customHeight="1">
-      <c r="C4" s="72"/>
+    <row r="4" spans="3:14" ht="12.45" customHeight="1">
+      <c r="C4" s="43"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="73" t="s">
-        <v>14</v>
+      <c r="F4" s="44" t="s">
+        <v>13</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="74">
+      <c r="H4" s="45">
         <f>データ設定用!H3</f>
         <v>0</v>
       </c>
-      <c r="I4" s="74"/>
+      <c r="I4" s="45"/>
       <c r="J4" s="3"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="3:14" ht="14.65" customHeight="1">
-      <c r="C5" s="72"/>
+    <row r="5" spans="3:14" ht="14.7" customHeight="1">
+      <c r="C5" s="43"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="73"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="3:14" ht="35.65" customHeight="1">
+    <row r="6" spans="3:14" ht="35.700000000000003" customHeight="1">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="76">
+      <c r="H6" s="48">
         <f>データ設定用!P3</f>
         <v>0</v>
       </c>
-      <c r="I6" s="74"/>
-      <c r="J6" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-    </row>
-    <row r="7" spans="3:14" ht="33.4" customHeight="1">
+      <c r="I6" s="45"/>
+      <c r="J6" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+    </row>
+    <row r="7" spans="3:14" ht="33.450000000000003" customHeight="1">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
+      <c r="F7" s="42" t="s">
+        <v>9</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="74">
+      <c r="H7" s="45">
         <f>データ設定用!R3</f>
         <v>0</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
     </row>
     <row r="8" spans="3:14" ht="21" customHeight="1">
       <c r="C8" s="2"/>
@@ -2000,19 +2052,19 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="3:14" ht="24.4" customHeight="1">
+    <row r="9" spans="3:14" ht="24.45" customHeight="1">
       <c r="C9" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
       <c r="I9" s="6" t="s">
         <v>1</v>
       </c>
@@ -2025,12 +2077,12 @@
       <c r="L9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="68" t="s">
+      <c r="M9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="69"/>
-    </row>
-    <row r="10" spans="3:14" ht="34.9" customHeight="1">
+      <c r="N9" s="52"/>
+    </row>
+    <row r="10" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C10" s="10">
         <f>データ設定用!E6</f>
         <v>0</v>
@@ -2039,14 +2091,14 @@
         <f>データ設定用!H6</f>
         <v>0</v>
       </c>
-      <c r="E10" s="65" t="str">
+      <c r="E10" s="46" t="str">
         <f>CONCATENATE(データ設定用!K6,CHAR(10),データ設定用!G6,"　",データ設定用!S6)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
       <c r="I10" s="10">
         <f>データ設定用!M6</f>
         <v>0</v>
@@ -2063,13 +2115,13 @@
         <f t="shared" ref="L10:L15" si="0">I10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="59">
+      <c r="M10" s="53">
         <f>データ設定用!R6</f>
         <v>0</v>
       </c>
-      <c r="N10" s="60"/>
-    </row>
-    <row r="11" spans="3:14" ht="34.9" customHeight="1">
+      <c r="N10" s="54"/>
+    </row>
+    <row r="11" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C11" s="12">
         <f>データ設定用!E7</f>
         <v>0</v>
@@ -2078,14 +2130,14 @@
         <f>データ設定用!H7</f>
         <v>0</v>
       </c>
-      <c r="E11" s="65" t="str">
+      <c r="E11" s="46" t="str">
         <f>CONCATENATE(データ設定用!K7,CHAR(10),データ設定用!G7,"　",データ設定用!S7)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="12">
         <f>データ設定用!M7</f>
         <v>0</v>
@@ -2102,13 +2154,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="59">
+      <c r="M11" s="53">
         <f>データ設定用!R7</f>
         <v>0</v>
       </c>
-      <c r="N11" s="60"/>
-    </row>
-    <row r="12" spans="3:14" ht="34.9" customHeight="1">
+      <c r="N11" s="54"/>
+    </row>
+    <row r="12" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C12" s="12">
         <f>データ設定用!E8</f>
         <v>0</v>
@@ -2117,14 +2169,14 @@
         <f>データ設定用!H8</f>
         <v>0</v>
       </c>
-      <c r="E12" s="65" t="str">
+      <c r="E12" s="46" t="str">
         <f>CONCATENATE(データ設定用!K8,CHAR(10),データ設定用!G8,"　",データ設定用!S8)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="12">
         <f>データ設定用!M8</f>
         <v>0</v>
@@ -2141,13 +2193,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="59">
+      <c r="M12" s="53">
         <f>データ設定用!R8</f>
         <v>0</v>
       </c>
-      <c r="N12" s="60"/>
-    </row>
-    <row r="13" spans="3:14" ht="34.9" customHeight="1">
+      <c r="N12" s="54"/>
+    </row>
+    <row r="13" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C13" s="12">
         <f>データ設定用!E9</f>
         <v>0</v>
@@ -2156,14 +2208,14 @@
         <f>データ設定用!H9</f>
         <v>0</v>
       </c>
-      <c r="E13" s="65" t="str">
+      <c r="E13" s="46" t="str">
         <f>CONCATENATE(データ設定用!K9,CHAR(10),データ設定用!G9,"　",データ設定用!S9)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="12">
         <f>データ設定用!M9</f>
         <v>0</v>
@@ -2180,13 +2232,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="59">
+      <c r="M13" s="53">
         <f>データ設定用!R9</f>
         <v>0</v>
       </c>
-      <c r="N13" s="60"/>
-    </row>
-    <row r="14" spans="3:14" ht="34.9" customHeight="1">
+      <c r="N13" s="54"/>
+    </row>
+    <row r="14" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C14" s="12">
         <f>データ設定用!E10</f>
         <v>0</v>
@@ -2195,14 +2247,14 @@
         <f>データ設定用!H10</f>
         <v>0</v>
       </c>
-      <c r="E14" s="65" t="str">
+      <c r="E14" s="46" t="str">
         <f>CONCATENATE(データ設定用!K10,CHAR(10),データ設定用!G10,"　",データ設定用!S10)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="12">
         <f>データ設定用!M10</f>
         <v>0</v>
@@ -2219,13 +2271,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="59">
+      <c r="M14" s="53">
         <f>データ設定用!R10</f>
         <v>0</v>
       </c>
-      <c r="N14" s="60"/>
-    </row>
-    <row r="15" spans="3:14" ht="34.9" customHeight="1">
+      <c r="N14" s="54"/>
+    </row>
+    <row r="15" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C15" s="12">
         <f>データ設定用!E11</f>
         <v>0</v>
@@ -2234,14 +2286,14 @@
         <f>データ設定用!H11</f>
         <v>0</v>
       </c>
-      <c r="E15" s="65" t="str">
+      <c r="E15" s="46" t="str">
         <f>CONCATENATE(データ設定用!K11,CHAR(10),データ設定用!G11,"　",データ設定用!S11)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="12">
         <f>データ設定用!M11</f>
         <v>0</v>
@@ -2258,13 +2310,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="59">
+      <c r="M15" s="53">
         <f>データ設定用!R11</f>
         <v>0</v>
       </c>
-      <c r="N15" s="60"/>
-    </row>
-    <row r="16" spans="3:14" ht="9.4" customHeight="1">
+      <c r="N15" s="54"/>
+    </row>
+    <row r="16" spans="3:14" ht="9.4499999999999993" customHeight="1">
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -2275,120 +2327,120 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="60"/>
-    </row>
-    <row r="17" spans="3:14" ht="13.15" customHeight="1">
-      <c r="C17" s="44" t="str">
+      <c r="M16" s="53"/>
+      <c r="N16" s="54"/>
+    </row>
+    <row r="17" spans="3:14" ht="13.2" customHeight="1">
+      <c r="C17" s="59" t="str">
         <f>CONCATENATE(IF(LEN(データ設定用!G6)&gt;0,CONCATENATE(データ設定用!G6,"分　"),""),データ設定用!Z3,IF(データ設定用!Z3&lt;&gt;"非課税",CONCATENATE("(",データ設定用!AA3*100,"%)"),""),CHAR(10),データ設定用!AE3)</f>
         <v xml:space="preserve">(0%)
 </v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="6" t="s">
-        <v>8</v>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="82" t="s">
+        <v>133</v>
       </c>
       <c r="H17" s="39">
         <f>データ設定用!I6</f>
         <v>0</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="68">
         <f>データ設定用!U3</f>
         <v>0</v>
       </c>
-      <c r="J17" s="54"/>
+      <c r="J17" s="69"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="61">
+      <c r="L17" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="74">
         <f>データ設定用!V3</f>
         <v>0</v>
       </c>
-      <c r="N17" s="62"/>
-    </row>
-    <row r="18" spans="3:14" ht="13.15" customHeight="1">
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
+      <c r="N17" s="75"/>
+    </row>
+    <row r="18" spans="3:14" ht="13.2" customHeight="1">
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64"/>
       <c r="G18" s="2"/>
       <c r="H18" s="39">
         <f>データ設定用!I7</f>
         <v>0</v>
       </c>
-      <c r="I18" s="55"/>
-      <c r="J18" s="56"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="71"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="64"/>
-    </row>
-    <row r="19" spans="3:14" ht="13.15" customHeight="1">
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="77"/>
+    </row>
+    <row r="19" spans="3:14" ht="13.2" customHeight="1">
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
       <c r="G19" s="2"/>
       <c r="H19" s="39">
         <f>データ設定用!I8</f>
         <v>0</v>
       </c>
-      <c r="I19" s="55"/>
-      <c r="J19" s="56"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="71"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="3:14" ht="13.15" customHeight="1">
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
+    <row r="20" spans="3:14" ht="13.2" customHeight="1">
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="64"/>
       <c r="G20" s="2"/>
       <c r="H20" s="39">
         <f>データ設定用!I9</f>
         <v>0</v>
       </c>
-      <c r="I20" s="55"/>
-      <c r="J20" s="56"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="71"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="3:14" ht="13.15" customHeight="1">
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
+    <row r="21" spans="3:14" ht="13.2" customHeight="1">
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="64"/>
       <c r="G21" s="2"/>
       <c r="H21" s="39">
         <f>データ設定用!I10</f>
         <v>0</v>
       </c>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="71"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="3:14" ht="13.15" customHeight="1">
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
+    <row r="22" spans="3:14" ht="13.2" customHeight="1">
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
       <c r="G22" s="1"/>
       <c r="H22" s="39">
         <f>データ設定用!I11</f>
         <v>0</v>
       </c>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="73"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -2399,7 +2451,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23" s="37" t="str">
         <f>TEXT(データ設定用!D3,"0")</f>
@@ -2415,14 +2467,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="C17:F22"/>
+    <mergeCell ref="I17:J22"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="E15:H15"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="M10:N10"/>
@@ -2433,14 +2485,14 @@
     <mergeCell ref="J6:N7"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="C17:F22"/>
-    <mergeCell ref="I17:J22"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.51181102362204722" bottom="0" header="0" footer="0"/>
@@ -2450,43 +2502,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="3" style="13" customWidth="1"/>
     <col min="2" max="2" width="16" style="13" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="31.5" style="13" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="13" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="13"/>
-    <col min="7" max="7" width="11.5" style="13" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="13" customWidth="1"/>
-    <col min="9" max="9" width="18.75" style="13" customWidth="1"/>
-    <col min="10" max="10" width="2.375" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="13"/>
+    <col min="3" max="3" width="13.88671875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="13"/>
+    <col min="7" max="7" width="11.44140625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15.4" customHeight="1">
-      <c r="B2" s="77" t="str">
+    <row r="2" spans="1:11" ht="15.45" customHeight="1">
+      <c r="B2" s="78" t="str">
         <f>CONCATENATE(データ設定用!G3,"　",データ設定用!H3,"　",データ設定用!O3,"様")</f>
         <v>　　様</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="B3" s="77" t="str">
+      <c r="B3" s="78" t="str">
         <f>CONCATENATE(データ設定用!R3,"　",データ設定用!S3,"様")</f>
         <v>　様</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -2499,19 +2551,19 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:11" ht="30.4" customHeight="1" thickBot="1">
+    <row r="5" spans="1:11" ht="30.45" customHeight="1" thickBot="1">
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.7" customHeight="1">
+      <c r="D7" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-    </row>
-    <row r="7" spans="1:11" ht="20.65" customHeight="1">
-      <c r="D7" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="E7" s="17"/>
     </row>
@@ -2519,18 +2571,18 @@
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:11" ht="25.9" customHeight="1" thickBot="1">
+    <row r="9" spans="1:11" ht="25.95" customHeight="1" thickBot="1">
       <c r="D9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="79">
+        <v>17</v>
+      </c>
+      <c r="E9" s="80">
         <f>データ設定用!P3</f>
         <v>0</v>
       </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-    </row>
-    <row r="10" spans="1:11" ht="10.9" customHeight="1">
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+    </row>
+    <row r="10" spans="1:11" ht="10.95" customHeight="1">
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -2541,33 +2593,33 @@
     <row r="11" spans="1:11" ht="25.5" customHeight="1">
       <c r="A11" s="22"/>
       <c r="B11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="D11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="E11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="F11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="G11" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="H11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="I11" s="25" t="s">
         <v>25</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>26</v>
       </c>
       <c r="J11" s="26"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" ht="33.4" customHeight="1">
+    <row r="12" spans="1:11" ht="33.450000000000003" customHeight="1">
       <c r="A12" s="22">
         <v>1</v>
       </c>
@@ -2604,7 +2656,7 @@
       <c r="J12" s="26"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" ht="33.4" customHeight="1">
+    <row r="13" spans="1:11" ht="33.450000000000003" customHeight="1">
       <c r="A13" s="22">
         <v>2</v>
       </c>
@@ -2641,7 +2693,7 @@
       <c r="J13" s="26"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" ht="33.4" customHeight="1">
+    <row r="14" spans="1:11" ht="33.450000000000003" customHeight="1">
       <c r="A14" s="22">
         <v>3</v>
       </c>
@@ -2678,7 +2730,7 @@
       <c r="J14" s="26"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" ht="33.4" customHeight="1">
+    <row r="15" spans="1:11" ht="33.450000000000003" customHeight="1">
       <c r="A15" s="22">
         <v>4</v>
       </c>
@@ -2715,7 +2767,7 @@
       <c r="J15" s="26"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" ht="33.4" customHeight="1">
+    <row r="16" spans="1:11" ht="33.450000000000003" customHeight="1">
       <c r="A16" s="22">
         <v>5</v>
       </c>
@@ -2752,7 +2804,7 @@
       <c r="J16" s="26"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" ht="33.4" customHeight="1">
+    <row r="17" spans="1:11" ht="33.450000000000003" customHeight="1">
       <c r="A17" s="22">
         <v>6</v>
       </c>
@@ -2789,7 +2841,7 @@
       <c r="J17" s="26"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" ht="13.9" customHeight="1">
+    <row r="18" spans="1:11" ht="13.95" customHeight="1">
       <c r="A18" s="21"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -2803,12 +2855,12 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11" ht="27" customHeight="1">
-      <c r="G19" s="80" t="s">
+      <c r="G19" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="81"/>
+      <c r="I19" s="31" t="s">
         <v>27</v>
-      </c>
-      <c r="H19" s="80"/>
-      <c r="I19" s="31" t="s">
-        <v>28</v>
       </c>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
@@ -2817,20 +2869,20 @@
       <c r="G20" s="32"/>
       <c r="H20" s="33"/>
       <c r="I20" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
       <c r="G21" s="32"/>
       <c r="H21" s="33"/>
       <c r="I21" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
       <c r="G22" s="32"/>
       <c r="H22" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I22" s="31">
         <f>納品書!I17</f>
@@ -2852,249 +2904,249 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
       <c r="B1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
         <v>93</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>94</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
         <v>95</v>
       </c>
-      <c r="G1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O1" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>97</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>99</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>100</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>103</v>
+      </c>
+      <c r="U1" t="s">
+        <v>104</v>
+      </c>
+      <c r="V1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y1" t="s">
         <v>101</v>
       </c>
-      <c r="T1" t="s">
-        <v>104</v>
-      </c>
-      <c r="U1" t="s">
-        <v>105</v>
-      </c>
-      <c r="V1" t="s">
-        <v>106</v>
-      </c>
-      <c r="W1" t="s">
-        <v>107</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD1" t="s">
         <v>108</v>
       </c>
-      <c r="Y1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>109</v>
       </c>
-      <c r="AE1" t="s">
-        <v>110</v>
-      </c>
       <c r="AF1" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG1" s="34"/>
       <c r="AI1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:36">
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" t="s">
         <v>43</v>
       </c>
-      <c r="G2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>45</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>47</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>48</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" t="s">
         <v>49</v>
       </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W2" t="s">
-        <v>56</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD2" t="s">
         <v>57</v>
       </c>
-      <c r="Y2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" t="s">
-        <v>59</v>
-      </c>
       <c r="AF2" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="36"/>
       <c r="G3" s="34"/>
@@ -3126,119 +3178,119 @@
     </row>
     <row r="4" spans="1:36">
       <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>76</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>77</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>78</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>79</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>80</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>81</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>82</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>83</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>84</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>85</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>86</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>87</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>88</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>90</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>91</v>
-      </c>
-      <c r="S4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:36">
       <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>60</v>
       </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>61</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>62</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>63</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>64</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>65</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>66</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>67</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>68</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>69</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>70</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>71</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>72</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>73</v>
       </c>
-      <c r="R5" t="s">
-        <v>74</v>
-      </c>
       <c r="S5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="36"/>
       <c r="G6" s="34"/>
@@ -3251,7 +3303,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="36"/>
       <c r="G7" s="34"/>
@@ -3264,7 +3316,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="36"/>
       <c r="G8" s="34"/>
@@ -3277,7 +3329,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="36"/>
       <c r="G9" s="34"/>
@@ -3291,7 +3343,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="36"/>
       <c r="G10" s="34"/>
@@ -3304,7 +3356,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="36"/>
       <c r="G11" s="34"/>

--- a/01_kidsweb/home/kids2/report_tmp/納品書temple_B社_連絡書付.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/納品書temple_B社_連絡書付.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom-ad\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89C4840-1F0E-4F1E-AEA6-840CCE7A37B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAA20D8-C8AD-4DD2-8C4D-664F7D6881C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="36" windowWidth="18216" windowHeight="8556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="19416" windowHeight="15132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="納品書" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">納品連絡書!$A$1:$J$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1358,7 +1366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1436,6 +1444,87 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1445,100 +1534,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -1551,8 +1550,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1923,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1959,39 +1976,39 @@
       <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="64">
         <f>データ設定用!AF3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="50"/>
+      <c r="M3" s="65"/>
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="3:14" ht="12.45" customHeight="1">
-      <c r="C4" s="43"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="71" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="45">
+      <c r="H4" s="72">
         <f>データ設定用!H3</f>
         <v>0</v>
       </c>
-      <c r="I4" s="45"/>
+      <c r="I4" s="72"/>
       <c r="J4" s="3"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="3:14" ht="14.7" customHeight="1">
-      <c r="C5" s="43"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="44"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -2006,18 +2023,18 @@
         <v>14</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="48">
+      <c r="H6" s="74">
         <f>データ設定用!P3</f>
         <v>0</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="55" t="s">
+      <c r="I6" s="72"/>
+      <c r="J6" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
     </row>
     <row r="7" spans="3:14" ht="33.450000000000003" customHeight="1">
       <c r="C7" s="2"/>
@@ -2027,16 +2044,16 @@
         <v>9</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="45">
+      <c r="H7" s="72">
         <f>データ設定用!R3</f>
         <v>0</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
     </row>
     <row r="8" spans="3:14" ht="21" customHeight="1">
       <c r="C8" s="2"/>
@@ -2059,12 +2076,12 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
       <c r="I9" s="6" t="s">
         <v>1</v>
       </c>
@@ -2077,10 +2094,10 @@
       <c r="L9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="M9" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="52"/>
+      <c r="N9" s="67"/>
     </row>
     <row r="10" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C10" s="10">
@@ -2091,35 +2108,35 @@
         <f>データ設定用!H6</f>
         <v>0</v>
       </c>
-      <c r="E10" s="46" t="str">
+      <c r="E10" s="63" t="str">
         <f>CONCATENATE(データ設定用!K6,CHAR(10),データ設定用!G6,"　",データ設定用!S6)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="10">
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="79">
         <f>データ設定用!M6</f>
         <v>0</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="79">
         <f>データ設定用!N6</f>
         <v>0</v>
       </c>
-      <c r="K10" s="10" t="str">
+      <c r="K10" s="79" t="str">
         <f>CONCATENATE(TEXT(データ設定用!O6,"0"),データ設定用!Q6)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="79">
         <f t="shared" ref="L10:L15" si="0">I10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="53">
+      <c r="M10" s="80">
         <f>データ設定用!R6</f>
         <v>0</v>
       </c>
-      <c r="N10" s="54"/>
+      <c r="N10" s="81"/>
     </row>
     <row r="11" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C11" s="12">
@@ -2130,35 +2147,35 @@
         <f>データ設定用!H7</f>
         <v>0</v>
       </c>
-      <c r="E11" s="46" t="str">
+      <c r="E11" s="63" t="str">
         <f>CONCATENATE(データ設定用!K7,CHAR(10),データ設定用!G7,"　",データ設定用!S7)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="12">
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="79">
         <f>データ設定用!M7</f>
         <v>0</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="79">
         <f>データ設定用!N7</f>
         <v>0</v>
       </c>
-      <c r="K11" s="12" t="str">
+      <c r="K11" s="79" t="str">
         <f>CONCATENATE(TEXT(データ設定用!O7,"0"),データ設定用!Q7)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="53">
+      <c r="M11" s="80">
         <f>データ設定用!R7</f>
         <v>0</v>
       </c>
-      <c r="N11" s="54"/>
+      <c r="N11" s="81"/>
     </row>
     <row r="12" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C12" s="12">
@@ -2169,35 +2186,35 @@
         <f>データ設定用!H8</f>
         <v>0</v>
       </c>
-      <c r="E12" s="46" t="str">
+      <c r="E12" s="63" t="str">
         <f>CONCATENATE(データ設定用!K8,CHAR(10),データ設定用!G8,"　",データ設定用!S8)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="12">
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="79">
         <f>データ設定用!M8</f>
         <v>0</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="79">
         <f>データ設定用!N8</f>
         <v>0</v>
       </c>
-      <c r="K12" s="12" t="str">
+      <c r="K12" s="79" t="str">
         <f>CONCATENATE(TEXT(データ設定用!O8,"0"),データ設定用!Q8)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="53">
+      <c r="M12" s="80">
         <f>データ設定用!R8</f>
         <v>0</v>
       </c>
-      <c r="N12" s="54"/>
+      <c r="N12" s="81"/>
     </row>
     <row r="13" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C13" s="12">
@@ -2208,35 +2225,35 @@
         <f>データ設定用!H9</f>
         <v>0</v>
       </c>
-      <c r="E13" s="46" t="str">
+      <c r="E13" s="63" t="str">
         <f>CONCATENATE(データ設定用!K9,CHAR(10),データ設定用!G9,"　",データ設定用!S9)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="12">
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="79">
         <f>データ設定用!M9</f>
         <v>0</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="79">
         <f>データ設定用!N9</f>
         <v>0</v>
       </c>
-      <c r="K13" s="12" t="str">
+      <c r="K13" s="79" t="str">
         <f>CONCATENATE(TEXT(データ設定用!O9,"0"),データ設定用!Q9)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="53">
+      <c r="M13" s="80">
         <f>データ設定用!R9</f>
         <v>0</v>
       </c>
-      <c r="N13" s="54"/>
+      <c r="N13" s="81"/>
     </row>
     <row r="14" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C14" s="12">
@@ -2247,35 +2264,35 @@
         <f>データ設定用!H10</f>
         <v>0</v>
       </c>
-      <c r="E14" s="46" t="str">
+      <c r="E14" s="63" t="str">
         <f>CONCATENATE(データ設定用!K10,CHAR(10),データ設定用!G10,"　",データ設定用!S10)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="12">
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="79">
         <f>データ設定用!M10</f>
         <v>0</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="79">
         <f>データ設定用!N10</f>
         <v>0</v>
       </c>
-      <c r="K14" s="12" t="str">
+      <c r="K14" s="79" t="str">
         <f>CONCATENATE(TEXT(データ設定用!O10,"0"),データ設定用!Q10)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="53">
+      <c r="M14" s="80">
         <f>データ設定用!R10</f>
         <v>0</v>
       </c>
-      <c r="N14" s="54"/>
+      <c r="N14" s="81"/>
     </row>
     <row r="15" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C15" s="12">
@@ -2286,35 +2303,35 @@
         <f>データ設定用!H11</f>
         <v>0</v>
       </c>
-      <c r="E15" s="46" t="str">
+      <c r="E15" s="63" t="str">
         <f>CONCATENATE(データ設定用!K11,CHAR(10),データ設定用!G11,"　",データ設定用!S11)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="12">
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="79">
         <f>データ設定用!M11</f>
         <v>0</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="79">
         <f>データ設定用!N11</f>
         <v>0</v>
       </c>
-      <c r="K15" s="12" t="str">
+      <c r="K15" s="79" t="str">
         <f>CONCATENATE(TEXT(データ設定用!O11,"0"),データ設定用!Q11)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="53">
+      <c r="M15" s="80">
         <f>データ設定用!R11</f>
         <v>0</v>
       </c>
-      <c r="N15" s="54"/>
+      <c r="N15" s="81"/>
     </row>
     <row r="16" spans="3:14" ht="9.4499999999999993" customHeight="1">
       <c r="C16" s="9"/>
@@ -2327,120 +2344,120 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="54"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="62"/>
     </row>
     <row r="17" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C17" s="59" t="str">
+      <c r="C17" s="46" t="str">
         <f>CONCATENATE(IF(LEN(データ設定用!G6)&gt;0,CONCATENATE(データ設定用!G6,"分　"),""),データ設定用!Z3,IF(データ設定用!Z3&lt;&gt;"非課税",CONCATENATE("(",データ設定用!AA3*100,"%)"),""),CHAR(10),データ設定用!AE3)</f>
         <v xml:space="preserve">(0%)
 </v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="82" t="s">
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="43" t="s">
         <v>133</v>
       </c>
       <c r="H17" s="39">
         <f>データ設定用!I6</f>
         <v>0</v>
       </c>
-      <c r="I17" s="68">
+      <c r="I17" s="55">
         <f>データ設定用!U3</f>
         <v>0</v>
       </c>
-      <c r="J17" s="69"/>
+      <c r="J17" s="56"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="57" t="s">
+      <c r="L17" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="74">
+      <c r="M17" s="82">
         <f>データ設定用!V3</f>
         <v>0</v>
       </c>
-      <c r="N17" s="75"/>
+      <c r="N17" s="83"/>
     </row>
     <row r="18" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="64"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
       <c r="G18" s="2"/>
       <c r="H18" s="39">
         <f>データ設定用!I7</f>
         <v>0</v>
       </c>
-      <c r="I18" s="70"/>
-      <c r="J18" s="71"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="77"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="85"/>
     </row>
     <row r="19" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="64"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="2"/>
       <c r="H19" s="39">
         <f>データ設定用!I8</f>
         <v>0</v>
       </c>
-      <c r="I19" s="70"/>
-      <c r="J19" s="71"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="64"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
       <c r="G20" s="2"/>
       <c r="H20" s="39">
         <f>データ設定用!I9</f>
         <v>0</v>
       </c>
-      <c r="I20" s="70"/>
-      <c r="J20" s="71"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C21" s="62"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="64"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
       <c r="G21" s="2"/>
       <c r="H21" s="39">
         <f>データ設定用!I10</f>
         <v>0</v>
       </c>
-      <c r="I21" s="70"/>
-      <c r="J21" s="71"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="58"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C22" s="65"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="67"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
       <c r="G22" s="1"/>
       <c r="H22" s="39">
         <f>データ設定用!I11</f>
         <v>0</v>
       </c>
-      <c r="I22" s="72"/>
-      <c r="J22" s="73"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="60"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -2467,14 +2484,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="C17:F22"/>
-    <mergeCell ref="I17:J22"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="M10:N10"/>
@@ -2485,14 +2502,14 @@
     <mergeCell ref="J6:N7"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="C17:F22"/>
+    <mergeCell ref="I17:J22"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="E15:H15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.51181102362204722" bottom="0" header="0" footer="0"/>
@@ -2525,20 +2542,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.45" customHeight="1">
-      <c r="B2" s="78" t="str">
+      <c r="B2" s="75" t="str">
         <f>CONCATENATE(データ設定用!G3,"　",データ設定用!H3,"　",データ設定用!O3,"様")</f>
         <v>　　様</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="B3" s="78" t="str">
+      <c r="B3" s="75" t="str">
         <f>CONCATENATE(データ設定用!R3,"　",データ設定用!S3,"様")</f>
         <v>　様</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -2554,12 +2571,12 @@
     <row r="5" spans="1:11" ht="30.45" customHeight="1" thickBot="1">
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
     </row>
     <row r="7" spans="1:11" ht="20.7" customHeight="1">
       <c r="D7" s="17" t="s">
@@ -2575,12 +2592,12 @@
       <c r="D9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="80">
+      <c r="E9" s="77">
         <f>データ設定用!P3</f>
         <v>0</v>
       </c>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
     </row>
     <row r="10" spans="1:11" ht="10.95" customHeight="1">
       <c r="D10" s="19"/>
@@ -2855,10 +2872,10 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11" ht="27" customHeight="1">
-      <c r="G19" s="81" t="s">
+      <c r="G19" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="81"/>
+      <c r="H19" s="78"/>
       <c r="I19" s="31" t="s">
         <v>27</v>
       </c>
@@ -2907,7 +2924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>

--- a/01_kidsweb/home/kids2/report_tmp/納品書temple_B社_連絡書付.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/納品書temple_B社_連絡書付.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom-ad\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAA20D8-C8AD-4DD2-8C4D-664F7D6881C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58716C4B-CB40-4D62-8499-C74749C0889D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="19416" windowHeight="15132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="19416" windowHeight="15132" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="納品書" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">納品連絡書!$A$1:$J$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1436,7 +1428,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1447,6 +1438,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1499,10 +1494,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1548,27 +1561,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1940,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1976,39 +1968,39 @@
       <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="64">
+      <c r="L3" s="71">
         <f>データ設定用!AF3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="65"/>
+      <c r="M3" s="72"/>
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="3:14" ht="12.45" customHeight="1">
-      <c r="C4" s="70"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="78" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="72">
+      <c r="H4" s="79">
         <f>データ設定用!H3</f>
         <v>0</v>
       </c>
-      <c r="I4" s="72"/>
+      <c r="I4" s="79"/>
       <c r="J4" s="3"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="3:14" ht="14.7" customHeight="1">
-      <c r="C5" s="70"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="71"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -2023,37 +2015,37 @@
         <v>14</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="74">
+      <c r="H6" s="81">
         <f>データ設定用!P3</f>
         <v>0</v>
       </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="68" t="s">
+      <c r="I6" s="79"/>
+      <c r="J6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
     </row>
     <row r="7" spans="3:14" ht="33.450000000000003" customHeight="1">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="41" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="72">
+      <c r="H7" s="79">
         <f>データ設定用!R3</f>
         <v>0</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
     </row>
     <row r="8" spans="3:14" ht="21" customHeight="1">
       <c r="C8" s="2"/>
@@ -2076,12 +2068,12 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
       <c r="I9" s="6" t="s">
         <v>1</v>
       </c>
@@ -2094,10 +2086,10 @@
       <c r="L9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="66" t="s">
+      <c r="M9" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="67"/>
+      <c r="N9" s="74"/>
     </row>
     <row r="10" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C10" s="10">
@@ -2108,35 +2100,35 @@
         <f>データ設定用!H6</f>
         <v>0</v>
       </c>
-      <c r="E10" s="63" t="str">
+      <c r="E10" s="70" t="str">
         <f>CONCATENATE(データ設定用!K6,CHAR(10),データ設定用!G6,"　",データ設定用!S6)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="79">
-        <f>データ設定用!M6</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="79">
-        <f>データ設定用!N6</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="79" t="str">
-        <f>CONCATENATE(TEXT(データ設定用!O6,"0"),データ設定用!Q6)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="79">
-        <f t="shared" ref="L10:L15" si="0">I10</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="80">
-        <f>データ設定用!R6</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="81"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="43" t="str">
+        <f>IF(LEN(データ設定用!M6)&gt;0,データ設定用!M6,"")</f>
+        <v/>
+      </c>
+      <c r="J10" s="43" t="str">
+        <f>IF(LEN(データ設定用!N6)&gt;0,データ設定用!N6,"")</f>
+        <v/>
+      </c>
+      <c r="K10" s="43" t="str">
+        <f>IF(LEN(データ設定用!O6)&gt;0,CONCATENATE(TEXT(データ設定用!O6,"0"),データ設定用!Q6),"")</f>
+        <v/>
+      </c>
+      <c r="L10" s="43" t="str">
+        <f>IF(LEN(I10)&gt;0,I10,"")</f>
+        <v/>
+      </c>
+      <c r="M10" s="62" t="str">
+        <f>IF(LEN(データ設定用!R6)&gt;0,データ設定用!R6,"")</f>
+        <v/>
+      </c>
+      <c r="N10" s="63"/>
     </row>
     <row r="11" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C11" s="12">
@@ -2147,35 +2139,35 @@
         <f>データ設定用!H7</f>
         <v>0</v>
       </c>
-      <c r="E11" s="63" t="str">
+      <c r="E11" s="70" t="str">
         <f>CONCATENATE(データ設定用!K7,CHAR(10),データ設定用!G7,"　",データ設定用!S7)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="79">
-        <f>データ設定用!M7</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="79">
-        <f>データ設定用!N7</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="79" t="str">
-        <f>CONCATENATE(TEXT(データ設定用!O7,"0"),データ設定用!Q7)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="80">
-        <f>データ設定用!R7</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="81"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="43" t="str">
+        <f>IF(LEN(データ設定用!M7)&gt;0,データ設定用!M7,"")</f>
+        <v/>
+      </c>
+      <c r="J11" s="43" t="str">
+        <f>IF(LEN(データ設定用!N7)&gt;0,データ設定用!N7,"")</f>
+        <v/>
+      </c>
+      <c r="K11" s="43" t="str">
+        <f>IF(LEN(データ設定用!O7)&gt;0,CONCATENATE(TEXT(データ設定用!O7,"0"),データ設定用!Q7),"")</f>
+        <v/>
+      </c>
+      <c r="L11" s="43" t="str">
+        <f t="shared" ref="L11:L15" si="0">IF(LEN(I11)&gt;0,I11,"")</f>
+        <v/>
+      </c>
+      <c r="M11" s="62" t="str">
+        <f>IF(LEN(データ設定用!R7)&gt;0,データ設定用!R7,"")</f>
+        <v/>
+      </c>
+      <c r="N11" s="63"/>
     </row>
     <row r="12" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C12" s="12">
@@ -2186,35 +2178,35 @@
         <f>データ設定用!H8</f>
         <v>0</v>
       </c>
-      <c r="E12" s="63" t="str">
+      <c r="E12" s="70" t="str">
         <f>CONCATENATE(データ設定用!K8,CHAR(10),データ設定用!G8,"　",データ設定用!S8)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="79">
-        <f>データ設定用!M8</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="79">
-        <f>データ設定用!N8</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="79" t="str">
-        <f>CONCATENATE(TEXT(データ設定用!O8,"0"),データ設定用!Q8)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="79">
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="43" t="str">
+        <f>IF(LEN(データ設定用!M8)&gt;0,データ設定用!M8,"")</f>
+        <v/>
+      </c>
+      <c r="J12" s="43" t="str">
+        <f>IF(LEN(データ設定用!N8)&gt;0,データ設定用!N8,"")</f>
+        <v/>
+      </c>
+      <c r="K12" s="43" t="str">
+        <f>IF(LEN(データ設定用!O8)&gt;0,CONCATENATE(TEXT(データ設定用!O8,"0"),データ設定用!Q8),"")</f>
+        <v/>
+      </c>
+      <c r="L12" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="80">
-        <f>データ設定用!R8</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="81"/>
+        <v/>
+      </c>
+      <c r="M12" s="62" t="str">
+        <f>IF(LEN(データ設定用!R8)&gt;0,データ設定用!R8,"")</f>
+        <v/>
+      </c>
+      <c r="N12" s="63"/>
     </row>
     <row r="13" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C13" s="12">
@@ -2225,35 +2217,35 @@
         <f>データ設定用!H9</f>
         <v>0</v>
       </c>
-      <c r="E13" s="63" t="str">
+      <c r="E13" s="70" t="str">
         <f>CONCATENATE(データ設定用!K9,CHAR(10),データ設定用!G9,"　",データ設定用!S9)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="79">
-        <f>データ設定用!M9</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="79">
-        <f>データ設定用!N9</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="79" t="str">
-        <f>CONCATENATE(TEXT(データ設定用!O9,"0"),データ設定用!Q9)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="79">
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="43" t="str">
+        <f>IF(LEN(データ設定用!M9)&gt;0,データ設定用!M9,"")</f>
+        <v/>
+      </c>
+      <c r="J13" s="43" t="str">
+        <f>IF(LEN(データ設定用!N9)&gt;0,データ設定用!N9,"")</f>
+        <v/>
+      </c>
+      <c r="K13" s="43" t="str">
+        <f>IF(LEN(データ設定用!O9)&gt;0,CONCATENATE(TEXT(データ設定用!O9,"0"),データ設定用!Q9),"")</f>
+        <v/>
+      </c>
+      <c r="L13" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="80">
-        <f>データ設定用!R9</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="81"/>
+        <v/>
+      </c>
+      <c r="M13" s="62" t="str">
+        <f>IF(LEN(データ設定用!R9)&gt;0,データ設定用!R9,"")</f>
+        <v/>
+      </c>
+      <c r="N13" s="63"/>
     </row>
     <row r="14" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C14" s="12">
@@ -2264,35 +2256,35 @@
         <f>データ設定用!H10</f>
         <v>0</v>
       </c>
-      <c r="E14" s="63" t="str">
+      <c r="E14" s="70" t="str">
         <f>CONCATENATE(データ設定用!K10,CHAR(10),データ設定用!G10,"　",データ設定用!S10)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="79">
-        <f>データ設定用!M10</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="79">
-        <f>データ設定用!N10</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="79" t="str">
-        <f>CONCATENATE(TEXT(データ設定用!O10,"0"),データ設定用!Q10)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="79">
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="43" t="str">
+        <f>IF(LEN(データ設定用!M10)&gt;0,データ設定用!M10,"")</f>
+        <v/>
+      </c>
+      <c r="J14" s="43" t="str">
+        <f>IF(LEN(データ設定用!N10)&gt;0,データ設定用!N10,"")</f>
+        <v/>
+      </c>
+      <c r="K14" s="43" t="str">
+        <f>IF(LEN(データ設定用!O10)&gt;0,CONCATENATE(TEXT(データ設定用!O10,"0"),データ設定用!Q10),"")</f>
+        <v/>
+      </c>
+      <c r="L14" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="80">
-        <f>データ設定用!R10</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="81"/>
+        <v/>
+      </c>
+      <c r="M14" s="62" t="str">
+        <f>IF(LEN(データ設定用!R10)&gt;0,データ設定用!R10,"")</f>
+        <v/>
+      </c>
+      <c r="N14" s="63"/>
     </row>
     <row r="15" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C15" s="12">
@@ -2303,35 +2295,35 @@
         <f>データ設定用!H11</f>
         <v>0</v>
       </c>
-      <c r="E15" s="63" t="str">
+      <c r="E15" s="70" t="str">
         <f>CONCATENATE(データ設定用!K11,CHAR(10),データ設定用!G11,"　",データ設定用!S11)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="79">
-        <f>データ設定用!M11</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="79">
-        <f>データ設定用!N11</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="79" t="str">
-        <f>CONCATENATE(TEXT(データ設定用!O11,"0"),データ設定用!Q11)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="79">
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="43" t="str">
+        <f>IF(LEN(データ設定用!M11)&gt;0,データ設定用!M11,"")</f>
+        <v/>
+      </c>
+      <c r="J15" s="43" t="str">
+        <f>IF(LEN(データ設定用!N11)&gt;0,データ設定用!N11,"")</f>
+        <v/>
+      </c>
+      <c r="K15" s="43" t="str">
+        <f>IF(LEN(データ設定用!O11)&gt;0,CONCATENATE(TEXT(データ設定用!O11,"0"),データ設定用!Q11),"")</f>
+        <v/>
+      </c>
+      <c r="L15" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="80">
-        <f>データ設定用!R11</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="81"/>
+        <v/>
+      </c>
+      <c r="M15" s="62" t="str">
+        <f>IF(LEN(データ設定用!R11)&gt;0,データ設定用!R11,"")</f>
+        <v/>
+      </c>
+      <c r="N15" s="63"/>
     </row>
     <row r="16" spans="3:14" ht="9.4499999999999993" customHeight="1">
       <c r="C16" s="9"/>
@@ -2344,120 +2336,120 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="62"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="65"/>
     </row>
     <row r="17" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C17" s="46" t="str">
+      <c r="C17" s="47" t="str">
         <f>CONCATENATE(IF(LEN(データ設定用!G6)&gt;0,CONCATENATE(データ設定用!G6,"分　"),""),データ設定用!Z3,IF(データ設定用!Z3&lt;&gt;"非課税",CONCATENATE("(",データ設定用!AA3*100,"%)"),""),CHAR(10),データ設定用!AE3)</f>
         <v xml:space="preserve">(0%)
 </v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="43" t="s">
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="H17" s="39">
-        <f>データ設定用!I6</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="55">
+      <c r="H17" s="44" t="str">
+        <f>IF(LEN(データ設定用!I6)&gt;0,CONCATENATE(データ設定用!I6,"_",データ設定用!J6),"")</f>
+        <v/>
+      </c>
+      <c r="I17" s="56">
         <f>データ設定用!U3</f>
         <v>0</v>
       </c>
-      <c r="J17" s="56"/>
+      <c r="J17" s="57"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="44" t="s">
+      <c r="L17" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="82">
+      <c r="M17" s="66">
         <f>データ設定用!V3</f>
         <v>0</v>
       </c>
-      <c r="N17" s="83"/>
+      <c r="N17" s="67"/>
     </row>
     <row r="18" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="39">
-        <f>データ設定用!I7</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="57"/>
-      <c r="J18" s="58"/>
+      <c r="H18" s="44" t="str">
+        <f>IF(LEN(データ設定用!I7)&gt;0,CONCATENATE(データ設定用!I7,"_",データ設定用!J7),"")</f>
+        <v/>
+      </c>
+      <c r="I18" s="58"/>
+      <c r="J18" s="59"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="85"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="69"/>
     </row>
     <row r="19" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="39">
-        <f>データ設定用!I8</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="57"/>
-      <c r="J19" s="58"/>
+      <c r="H19" s="44" t="str">
+        <f>IF(LEN(データ設定用!I8)&gt;0,CONCATENATE(データ設定用!I8,"_",データ設定用!J8),"")</f>
+        <v/>
+      </c>
+      <c r="I19" s="58"/>
+      <c r="J19" s="59"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="39">
-        <f>データ設定用!I9</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
+      <c r="H20" s="44" t="str">
+        <f>IF(LEN(データ設定用!I9)&gt;0,CONCATENATE(データ設定用!I9,"_",データ設定用!J9),"")</f>
+        <v/>
+      </c>
+      <c r="I20" s="58"/>
+      <c r="J20" s="59"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C21" s="49"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="51"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="39">
-        <f>データ設定用!I10</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
+      <c r="H21" s="44" t="str">
+        <f>IF(LEN(データ設定用!I10)&gt;0,CONCATENATE(データ設定用!I10,"_",データ設定用!J10),"")</f>
+        <v/>
+      </c>
+      <c r="I21" s="58"/>
+      <c r="J21" s="59"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="54"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="55"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="39">
-        <f>データ設定用!I11</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="59"/>
-      <c r="J22" s="60"/>
+      <c r="H22" s="44" t="str">
+        <f>IF(LEN(データ設定用!I11)&gt;0,CONCATENATE(データ設定用!I11,"_",データ設定用!J11),"")</f>
+        <v/>
+      </c>
+      <c r="I22" s="60"/>
+      <c r="J22" s="61"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -2471,8 +2463,8 @@
         <v>8</v>
       </c>
       <c r="G23" s="37" t="str">
-        <f>TEXT(データ設定用!D3,"0")</f>
-        <v>0</v>
+        <f>IF(LEN(データ設定用!D3)&gt;0,TEXT(データ設定用!D3,"0"),"")</f>
+        <v/>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="2"/>
@@ -2522,8 +2514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K22"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -2542,23 +2534,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.45" customHeight="1">
-      <c r="B2" s="75" t="str">
+      <c r="B2" s="82" t="str">
         <f>CONCATENATE(データ設定用!G3,"　",データ設定用!H3,"　",データ設定用!O3,"様")</f>
         <v>　　様</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-    </row>
-    <row r="3" spans="1:11" ht="21">
-      <c r="B3" s="75" t="str">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+    </row>
+    <row r="3" spans="1:11" ht="21" customHeight="1">
+      <c r="B3" s="82" t="str">
         <f>CONCATENATE(データ設定用!R3,"　",データ設定用!S3,"様")</f>
         <v>　様</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
     </row>
     <row r="4" spans="1:11" ht="9" customHeight="1">
       <c r="B4" s="15"/>
@@ -2571,12 +2570,12 @@
     <row r="5" spans="1:11" ht="30.45" customHeight="1" thickBot="1">
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
     </row>
     <row r="7" spans="1:11" ht="20.7" customHeight="1">
       <c r="D7" s="17" t="s">
@@ -2592,12 +2591,12 @@
       <c r="D9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="84">
         <f>データ設定用!P3</f>
         <v>0</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
     </row>
     <row r="10" spans="1:11" ht="10.95" customHeight="1">
       <c r="D10" s="19"/>
@@ -2641,34 +2640,33 @@
         <v>1</v>
       </c>
       <c r="B12" s="27">
-        <f>納品書!C10</f>
+        <f>IF(LEN(納品書!C10)&gt;0,納品書!C10,"")</f>
         <v>0</v>
       </c>
       <c r="C12" s="28">
-        <f>納品書!D10</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="28">
-        <f>データ設定用!K6</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="28">
-        <f>データ設定用!O6</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="28">
-        <f>データ設定用!Q6</f>
-        <v>0</v>
+        <f>IF(LEN(納品書!D10)&gt;0,納品書!D10,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="28" t="str">
+        <f>IF(LEN(データ設定用!K6)&gt;0,データ設定用!K6,"")</f>
+        <v/>
+      </c>
+      <c r="E12" s="28" t="str">
+        <f>IF(LEN(データ設定用!O6)&gt;0,データ設定用!O6,"")</f>
+        <v/>
+      </c>
+      <c r="F12" s="28" t="str">
+        <f>IF(LEN(データ設定用!Q6)&gt;0,データ設定用!Q6,"")</f>
+        <v/>
       </c>
       <c r="G12" s="28"/>
-      <c r="H12" s="40" t="str">
-        <f>CONCATENATE(データ設定用!G6,CHAR(10),データ設定用!$Z$3)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="I12" s="29">
-        <f>データ設定用!$R$3</f>
-        <v>0</v>
+      <c r="H12" s="39" t="str">
+        <f>IF(LEN(データ設定用!G6)&gt;0,CONCATENATE(データ設定用!G6,CHAR(10),データ設定用!$Z$3),"")</f>
+        <v/>
+      </c>
+      <c r="I12" s="29" t="str">
+        <f>IF(LEN(D12)&gt;0,データ設定用!$R$3,"")</f>
+        <v/>
       </c>
       <c r="J12" s="26"/>
       <c r="K12" s="21"/>
@@ -2678,34 +2676,33 @@
         <v>2</v>
       </c>
       <c r="B13" s="27">
-        <f>納品書!C11</f>
+        <f>IF(LEN(納品書!C11)&gt;0,納品書!C11,"")</f>
         <v>0</v>
       </c>
       <c r="C13" s="28">
-        <f>納品書!D11</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="28">
-        <f>データ設定用!K7</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="28">
-        <f>データ設定用!O7</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="28">
-        <f>データ設定用!Q7</f>
-        <v>0</v>
+        <f>IF(LEN(納品書!D11)&gt;0,納品書!D11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="28" t="str">
+        <f>IF(LEN(データ設定用!K7)&gt;0,データ設定用!K7,"")</f>
+        <v/>
+      </c>
+      <c r="E13" s="28" t="str">
+        <f>IF(LEN(データ設定用!O7)&gt;0,データ設定用!O7,"")</f>
+        <v/>
+      </c>
+      <c r="F13" s="28" t="str">
+        <f>IF(LEN(データ設定用!Q7)&gt;0,データ設定用!Q7,"")</f>
+        <v/>
       </c>
       <c r="G13" s="28"/>
-      <c r="H13" s="40" t="str">
-        <f>CONCATENATE(データ設定用!G7,CHAR(10),データ設定用!$Z$3)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="I13" s="29">
-        <f>データ設定用!$R$3</f>
-        <v>0</v>
+      <c r="H13" s="39" t="str">
+        <f>IF(LEN(データ設定用!G7)&gt;0,CONCATENATE(データ設定用!G7,CHAR(10),データ設定用!$Z$3),"")</f>
+        <v/>
+      </c>
+      <c r="I13" s="29" t="str">
+        <f>IF(LEN(D13)&gt;0,データ設定用!$R$3,"")</f>
+        <v/>
       </c>
       <c r="J13" s="26"/>
       <c r="K13" s="21"/>
@@ -2715,34 +2712,33 @@
         <v>3</v>
       </c>
       <c r="B14" s="27">
-        <f>納品書!C12</f>
+        <f>IF(LEN(納品書!C12)&gt;0,納品書!C12,"")</f>
         <v>0</v>
       </c>
       <c r="C14" s="28">
-        <f>納品書!D12</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="28">
-        <f>データ設定用!K8</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="28">
-        <f>データ設定用!O8</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="28">
-        <f>データ設定用!Q8</f>
-        <v>0</v>
+        <f>IF(LEN(納品書!D12)&gt;0,納品書!D12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="28" t="str">
+        <f>IF(LEN(データ設定用!K8)&gt;0,データ設定用!K8,"")</f>
+        <v/>
+      </c>
+      <c r="E14" s="28" t="str">
+        <f>IF(LEN(データ設定用!O8)&gt;0,データ設定用!O8,"")</f>
+        <v/>
+      </c>
+      <c r="F14" s="28" t="str">
+        <f>IF(LEN(データ設定用!Q8)&gt;0,データ設定用!Q8,"")</f>
+        <v/>
       </c>
       <c r="G14" s="28"/>
-      <c r="H14" s="40" t="str">
-        <f>CONCATENATE(データ設定用!G8,CHAR(10),データ設定用!$Z$3)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="I14" s="29">
-        <f>データ設定用!$R$3</f>
-        <v>0</v>
+      <c r="H14" s="39" t="str">
+        <f>IF(LEN(データ設定用!G8)&gt;0,CONCATENATE(データ設定用!G8,CHAR(10),データ設定用!$Z$3),"")</f>
+        <v/>
+      </c>
+      <c r="I14" s="29" t="str">
+        <f>IF(LEN(D14)&gt;0,データ設定用!$R$3,"")</f>
+        <v/>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="21"/>
@@ -2752,34 +2748,33 @@
         <v>4</v>
       </c>
       <c r="B15" s="27">
-        <f>納品書!C13</f>
+        <f>IF(LEN(納品書!C13)&gt;0,納品書!C13,"")</f>
         <v>0</v>
       </c>
       <c r="C15" s="28">
-        <f>納品書!D13</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="28">
-        <f>データ設定用!K9</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="28">
-        <f>データ設定用!O9</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="28">
-        <f>データ設定用!Q9</f>
-        <v>0</v>
+        <f>IF(LEN(納品書!D13)&gt;0,納品書!D13,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="28" t="str">
+        <f>IF(LEN(データ設定用!K9)&gt;0,データ設定用!K9,"")</f>
+        <v/>
+      </c>
+      <c r="E15" s="28" t="str">
+        <f>IF(LEN(データ設定用!O9)&gt;0,データ設定用!O9,"")</f>
+        <v/>
+      </c>
+      <c r="F15" s="28" t="str">
+        <f>IF(LEN(データ設定用!Q9)&gt;0,データ設定用!Q9,"")</f>
+        <v/>
       </c>
       <c r="G15" s="28"/>
-      <c r="H15" s="40" t="str">
-        <f>CONCATENATE(データ設定用!G9,CHAR(10),データ設定用!$Z$3)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="I15" s="29">
-        <f>データ設定用!$R$3</f>
-        <v>0</v>
+      <c r="H15" s="39" t="str">
+        <f>IF(LEN(データ設定用!G9)&gt;0,CONCATENATE(データ設定用!G9,CHAR(10),データ設定用!$Z$3),"")</f>
+        <v/>
+      </c>
+      <c r="I15" s="29" t="str">
+        <f>IF(LEN(D15)&gt;0,データ設定用!$R$3,"")</f>
+        <v/>
       </c>
       <c r="J15" s="26"/>
       <c r="K15" s="21"/>
@@ -2789,34 +2784,33 @@
         <v>5</v>
       </c>
       <c r="B16" s="27">
-        <f>納品書!C14</f>
+        <f>IF(LEN(納品書!C14)&gt;0,納品書!C14,"")</f>
         <v>0</v>
       </c>
       <c r="C16" s="28">
-        <f>納品書!D14</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="28">
-        <f>データ設定用!K10</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="28">
-        <f>データ設定用!O10</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="28">
-        <f>データ設定用!Q10</f>
-        <v>0</v>
+        <f>IF(LEN(納品書!D14)&gt;0,納品書!D14,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="28" t="str">
+        <f>IF(LEN(データ設定用!K10)&gt;0,データ設定用!K10,"")</f>
+        <v/>
+      </c>
+      <c r="E16" s="28" t="str">
+        <f>IF(LEN(データ設定用!O10)&gt;0,データ設定用!O10,"")</f>
+        <v/>
+      </c>
+      <c r="F16" s="28" t="str">
+        <f>IF(LEN(データ設定用!Q10)&gt;0,データ設定用!Q10,"")</f>
+        <v/>
       </c>
       <c r="G16" s="28"/>
-      <c r="H16" s="40" t="str">
-        <f>CONCATENATE(データ設定用!G10,CHAR(10),データ設定用!$Z$3)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="I16" s="29">
-        <f>データ設定用!$R$3</f>
-        <v>0</v>
+      <c r="H16" s="39" t="str">
+        <f>IF(LEN(データ設定用!G10)&gt;0,CONCATENATE(データ設定用!G10,CHAR(10),データ設定用!$Z$3),"")</f>
+        <v/>
+      </c>
+      <c r="I16" s="29" t="str">
+        <f>IF(LEN(D16)&gt;0,データ設定用!$R$3,"")</f>
+        <v/>
       </c>
       <c r="J16" s="26"/>
       <c r="K16" s="21"/>
@@ -2826,34 +2820,33 @@
         <v>6</v>
       </c>
       <c r="B17" s="27">
-        <f>納品書!C15</f>
+        <f>IF(LEN(納品書!C15)&gt;0,納品書!C15,"")</f>
         <v>0</v>
       </c>
       <c r="C17" s="28">
-        <f>納品書!D15</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="28">
-        <f>データ設定用!K11</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="28">
-        <f>データ設定用!O11</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="28">
-        <f>データ設定用!Q11</f>
-        <v>0</v>
+        <f>IF(LEN(納品書!D15)&gt;0,納品書!D15,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="28" t="str">
+        <f>IF(LEN(データ設定用!K11)&gt;0,データ設定用!K11,"")</f>
+        <v/>
+      </c>
+      <c r="E17" s="28" t="str">
+        <f>IF(LEN(データ設定用!O11)&gt;0,データ設定用!O11,"")</f>
+        <v/>
+      </c>
+      <c r="F17" s="28" t="str">
+        <f>IF(LEN(データ設定用!Q11)&gt;0,データ設定用!Q11,"")</f>
+        <v/>
       </c>
       <c r="G17" s="28"/>
-      <c r="H17" s="40" t="str">
-        <f>CONCATENATE(データ設定用!G11,CHAR(10),データ設定用!$Z$3)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="I17" s="29">
-        <f>データ設定用!$R$3</f>
-        <v>0</v>
+      <c r="H17" s="39" t="str">
+        <f>IF(LEN(データ設定用!G11)&gt;0,CONCATENATE(データ設定用!G11,CHAR(10),データ設定用!$Z$3),"")</f>
+        <v/>
+      </c>
+      <c r="I17" s="29" t="str">
+        <f>IF(LEN(D17)&gt;0,データ設定用!$R$3,"")</f>
+        <v/>
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="21"/>
@@ -2872,10 +2865,10 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11" ht="27" customHeight="1">
-      <c r="G19" s="78" t="s">
+      <c r="G19" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="78"/>
+      <c r="H19" s="85"/>
       <c r="I19" s="31" t="s">
         <v>27</v>
       </c>
@@ -2908,11 +2901,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2924,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2986,16 +2979,16 @@
       <c r="H1" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="40" t="s">
         <v>126</v>
       </c>
       <c r="M1" s="13" t="s">
@@ -3088,16 +3081,16 @@
       <c r="H2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="40" t="s">
         <v>130</v>
       </c>
       <c r="M2" s="13" t="s">

--- a/01_kidsweb/home/kids2/report_tmp/納品書temple_B社_連絡書付.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/納品書temple_B社_連絡書付.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom-ad\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58716C4B-CB40-4D62-8499-C74749C0889D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D74CB2-3CB5-4E38-B0EC-57E425490B10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="19416" windowHeight="15132" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="納品書" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">納品連絡書!$A$1:$J$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1358,7 +1366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1442,6 +1450,48 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1494,12 +1544,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1517,43 +1561,6 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1562,6 +1569,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1932,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:N23"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1968,39 +1979,39 @@
       <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="71">
+      <c r="L3" s="51">
         <f>データ設定用!AF3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="72"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="3:14" ht="12.45" customHeight="1">
-      <c r="C4" s="77"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="46" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="79">
+      <c r="H4" s="47">
         <f>データ設定用!H3</f>
         <v>0</v>
       </c>
-      <c r="I4" s="79"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="3"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="3:14" ht="14.7" customHeight="1">
-      <c r="C5" s="77"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="78"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -2015,18 +2026,18 @@
         <v>14</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="81">
+      <c r="H6" s="50">
         <f>データ設定用!P3</f>
         <v>0</v>
       </c>
-      <c r="I6" s="79"/>
-      <c r="J6" s="75" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
     </row>
     <row r="7" spans="3:14" ht="33.450000000000003" customHeight="1">
       <c r="C7" s="2"/>
@@ -2036,16 +2047,16 @@
         <v>9</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="79">
+      <c r="H7" s="47">
         <f>データ設定用!R3</f>
         <v>0</v>
       </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
     </row>
     <row r="8" spans="3:14" ht="21" customHeight="1">
       <c r="C8" s="2"/>
@@ -2068,12 +2079,12 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
       <c r="I9" s="6" t="s">
         <v>1</v>
       </c>
@@ -2086,13 +2097,13 @@
       <c r="L9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="73" t="s">
+      <c r="M9" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="74"/>
+      <c r="N9" s="54"/>
     </row>
     <row r="10" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C10" s="10">
+      <c r="C10" s="86">
         <f>データ設定用!E6</f>
         <v>0</v>
       </c>
@@ -2100,14 +2111,14 @@
         <f>データ設定用!H6</f>
         <v>0</v>
       </c>
-      <c r="E10" s="70" t="str">
+      <c r="E10" s="48" t="str">
         <f>CONCATENATE(データ設定用!K6,CHAR(10),データ設定用!G6,"　",データ設定用!S6)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
       <c r="I10" s="43" t="str">
         <f>IF(LEN(データ設定用!M6)&gt;0,データ設定用!M6,"")</f>
         <v/>
@@ -2124,14 +2135,14 @@
         <f>IF(LEN(I10)&gt;0,I10,"")</f>
         <v/>
       </c>
-      <c r="M10" s="62" t="str">
+      <c r="M10" s="55" t="str">
         <f>IF(LEN(データ設定用!R6)&gt;0,データ設定用!R6,"")</f>
         <v/>
       </c>
-      <c r="N10" s="63"/>
+      <c r="N10" s="56"/>
     </row>
     <row r="11" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C11" s="12">
+      <c r="C11" s="86">
         <f>データ設定用!E7</f>
         <v>0</v>
       </c>
@@ -2139,14 +2150,14 @@
         <f>データ設定用!H7</f>
         <v>0</v>
       </c>
-      <c r="E11" s="70" t="str">
+      <c r="E11" s="48" t="str">
         <f>CONCATENATE(データ設定用!K7,CHAR(10),データ設定用!G7,"　",データ設定用!S7)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
       <c r="I11" s="43" t="str">
         <f>IF(LEN(データ設定用!M7)&gt;0,データ設定用!M7,"")</f>
         <v/>
@@ -2163,14 +2174,14 @@
         <f t="shared" ref="L11:L15" si="0">IF(LEN(I11)&gt;0,I11,"")</f>
         <v/>
       </c>
-      <c r="M11" s="62" t="str">
+      <c r="M11" s="55" t="str">
         <f>IF(LEN(データ設定用!R7)&gt;0,データ設定用!R7,"")</f>
         <v/>
       </c>
-      <c r="N11" s="63"/>
+      <c r="N11" s="56"/>
     </row>
     <row r="12" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C12" s="12">
+      <c r="C12" s="86">
         <f>データ設定用!E8</f>
         <v>0</v>
       </c>
@@ -2178,14 +2189,14 @@
         <f>データ設定用!H8</f>
         <v>0</v>
       </c>
-      <c r="E12" s="70" t="str">
+      <c r="E12" s="48" t="str">
         <f>CONCATENATE(データ設定用!K8,CHAR(10),データ設定用!G8,"　",データ設定用!S8)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
       <c r="I12" s="43" t="str">
         <f>IF(LEN(データ設定用!M8)&gt;0,データ設定用!M8,"")</f>
         <v/>
@@ -2202,14 +2213,14 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M12" s="62" t="str">
+      <c r="M12" s="55" t="str">
         <f>IF(LEN(データ設定用!R8)&gt;0,データ設定用!R8,"")</f>
         <v/>
       </c>
-      <c r="N12" s="63"/>
+      <c r="N12" s="56"/>
     </row>
     <row r="13" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C13" s="12">
+      <c r="C13" s="86">
         <f>データ設定用!E9</f>
         <v>0</v>
       </c>
@@ -2217,14 +2228,14 @@
         <f>データ設定用!H9</f>
         <v>0</v>
       </c>
-      <c r="E13" s="70" t="str">
+      <c r="E13" s="48" t="str">
         <f>CONCATENATE(データ設定用!K9,CHAR(10),データ設定用!G9,"　",データ設定用!S9)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
       <c r="I13" s="43" t="str">
         <f>IF(LEN(データ設定用!M9)&gt;0,データ設定用!M9,"")</f>
         <v/>
@@ -2241,14 +2252,14 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M13" s="62" t="str">
+      <c r="M13" s="55" t="str">
         <f>IF(LEN(データ設定用!R9)&gt;0,データ設定用!R9,"")</f>
         <v/>
       </c>
-      <c r="N13" s="63"/>
+      <c r="N13" s="56"/>
     </row>
     <row r="14" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C14" s="12">
+      <c r="C14" s="86">
         <f>データ設定用!E10</f>
         <v>0</v>
       </c>
@@ -2256,14 +2267,14 @@
         <f>データ設定用!H10</f>
         <v>0</v>
       </c>
-      <c r="E14" s="70" t="str">
+      <c r="E14" s="48" t="str">
         <f>CONCATENATE(データ設定用!K10,CHAR(10),データ設定用!G10,"　",データ設定用!S10)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
       <c r="I14" s="43" t="str">
         <f>IF(LEN(データ設定用!M10)&gt;0,データ設定用!M10,"")</f>
         <v/>
@@ -2280,14 +2291,14 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M14" s="62" t="str">
+      <c r="M14" s="55" t="str">
         <f>IF(LEN(データ設定用!R10)&gt;0,データ設定用!R10,"")</f>
         <v/>
       </c>
-      <c r="N14" s="63"/>
+      <c r="N14" s="56"/>
     </row>
     <row r="15" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C15" s="12">
+      <c r="C15" s="86">
         <f>データ設定用!E11</f>
         <v>0</v>
       </c>
@@ -2295,14 +2306,14 @@
         <f>データ設定用!H11</f>
         <v>0</v>
       </c>
-      <c r="E15" s="70" t="str">
+      <c r="E15" s="48" t="str">
         <f>CONCATENATE(データ設定用!K11,CHAR(10),データ設定用!G11,"　",データ設定用!S11)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
       <c r="I15" s="43" t="str">
         <f>IF(LEN(データ設定用!M11)&gt;0,データ設定用!M11,"")</f>
         <v/>
@@ -2319,11 +2330,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M15" s="62" t="str">
+      <c r="M15" s="55" t="str">
         <f>IF(LEN(データ設定用!R11)&gt;0,データ設定用!R11,"")</f>
         <v/>
       </c>
-      <c r="N15" s="63"/>
+      <c r="N15" s="56"/>
     </row>
     <row r="16" spans="3:14" ht="9.4499999999999993" customHeight="1">
       <c r="C16" s="9"/>
@@ -2336,18 +2347,18 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="65"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="77"/>
     </row>
     <row r="17" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C17" s="47" t="str">
+      <c r="C17" s="61" t="str">
         <f>CONCATENATE(IF(LEN(データ設定用!G6)&gt;0,CONCATENATE(データ設定用!G6,"分　"),""),データ設定用!Z3,IF(データ設定用!Z3&lt;&gt;"非課税",CONCATENATE("(",データ設定用!AA3*100,"%)"),""),CHAR(10),データ設定用!AE3)</f>
         <v xml:space="preserve">(0%)
 </v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="42" t="s">
         <v>133</v>
       </c>
@@ -2355,101 +2366,101 @@
         <f>IF(LEN(データ設定用!I6)&gt;0,CONCATENATE(データ設定用!I6,"_",データ設定用!J6),"")</f>
         <v/>
       </c>
-      <c r="I17" s="56">
+      <c r="I17" s="70">
         <f>データ設定用!U3</f>
         <v>0</v>
       </c>
-      <c r="J17" s="57"/>
+      <c r="J17" s="71"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="45" t="s">
+      <c r="L17" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="66">
+      <c r="M17" s="78">
         <f>データ設定用!V3</f>
         <v>0</v>
       </c>
-      <c r="N17" s="67"/>
+      <c r="N17" s="79"/>
     </row>
     <row r="18" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="66"/>
       <c r="G18" s="2"/>
       <c r="H18" s="44" t="str">
         <f>IF(LEN(データ設定用!I7)&gt;0,CONCATENATE(データ設定用!I7,"_",データ設定用!J7),"")</f>
         <v/>
       </c>
-      <c r="I18" s="58"/>
-      <c r="J18" s="59"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="73"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="69"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="81"/>
     </row>
     <row r="19" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66"/>
       <c r="G19" s="2"/>
       <c r="H19" s="44" t="str">
         <f>IF(LEN(データ設定用!I8)&gt;0,CONCATENATE(データ設定用!I8,"_",データ設定用!J8),"")</f>
         <v/>
       </c>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="73"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
       <c r="G20" s="2"/>
       <c r="H20" s="44" t="str">
         <f>IF(LEN(データ設定用!I9)&gt;0,CONCATENATE(データ設定用!I9,"_",データ設定用!J9),"")</f>
         <v/>
       </c>
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="73"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
       <c r="G21" s="2"/>
       <c r="H21" s="44" t="str">
         <f>IF(LEN(データ設定用!I10)&gt;0,CONCATENATE(データ設定用!I10,"_",データ設定用!J10),"")</f>
         <v/>
       </c>
-      <c r="I21" s="58"/>
-      <c r="J21" s="59"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="73"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C22" s="53"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="1"/>
       <c r="H22" s="44" t="str">
         <f>IF(LEN(データ設定用!I11)&gt;0,CONCATENATE(データ設定用!I11,"_",データ設定用!J11),"")</f>
         <v/>
       </c>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="75"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -2476,14 +2487,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="C17:F22"/>
+    <mergeCell ref="I17:J22"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="E15:H15"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="M10:N10"/>
@@ -2494,14 +2505,14 @@
     <mergeCell ref="J6:N7"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="C17:F22"/>
-    <mergeCell ref="I17:J22"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.51181102362204722" bottom="0" header="0" footer="0"/>
@@ -2514,8 +2525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K22"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -2534,30 +2545,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.45" customHeight="1">
-      <c r="B2" s="82" t="str">
+      <c r="B2" s="85" t="str">
         <f>CONCATENATE(データ設定用!G3,"　",データ設定用!H3,"　",データ設定用!O3,"様")</f>
         <v>　　様</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1">
-      <c r="B3" s="82" t="str">
+      <c r="B3" s="85" t="str">
         <f>CONCATENATE(データ設定用!R3,"　",データ設定用!S3,"様")</f>
         <v>　様</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="4" spans="1:11" ht="9" customHeight="1">
       <c r="B4" s="15"/>
@@ -2570,12 +2581,12 @@
     <row r="5" spans="1:11" ht="30.45" customHeight="1" thickBot="1">
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="7" spans="1:11" ht="20.7" customHeight="1">
       <c r="D7" s="17" t="s">
@@ -2591,12 +2602,12 @@
       <c r="D9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="83">
         <f>データ設定用!P3</f>
         <v>0</v>
       </c>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
     </row>
     <row r="10" spans="1:11" ht="10.95" customHeight="1">
       <c r="D10" s="19"/>
@@ -2865,10 +2876,10 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11" ht="27" customHeight="1">
-      <c r="G19" s="85" t="s">
+      <c r="G19" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="85"/>
+      <c r="H19" s="84"/>
       <c r="I19" s="31" t="s">
         <v>27</v>
       </c>
@@ -2918,7 +2929,7 @@
   <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3302,7 +3313,7 @@
       <c r="A6" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="38"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
       <c r="I6" s="38"/>
